--- a/Taxons Koala.xlsx
+++ b/Taxons Koala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utilisateur\Mon Drive\1 - Bota &amp; Travail\+++++++++  BOTA  +++++++++\---------------------- 3) BDD\PYTHON\0) Scripts Python\Koalactivit-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{232F80DF-D249-49D8-8007-22087C2AED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBE09D7-1E16-4E76-8D31-C6B0E9DCC8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6D07077A-2873-417F-A51C-452EADBB594B}"/>
   </bookViews>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FE6F29-2F2B-4F45-9C63-37A7EAC359C4}">
   <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q135" sqref="Q135"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
